--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Calr-Tshr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Calr-Tshr.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>70.597374</v>
+        <v>63.18739966666666</v>
       </c>
       <c r="H2">
-        <v>211.792122</v>
+        <v>189.562199</v>
       </c>
       <c r="I2">
-        <v>0.1038461413627678</v>
+        <v>0.09596345243430386</v>
       </c>
       <c r="J2">
-        <v>0.1079321580975798</v>
+        <v>0.09988075390087989</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1853783333333333</v>
+        <v>0.1744923333333333</v>
       </c>
       <c r="N2">
-        <v>0.5561349999999999</v>
+        <v>0.523477</v>
       </c>
       <c r="O2">
-        <v>0.05150040234182901</v>
+        <v>0.07822917822503123</v>
       </c>
       <c r="P2">
-        <v>0.06174910743679609</v>
+        <v>0.08239975633156223</v>
       </c>
       <c r="Q2">
-        <v>13.08722352983</v>
+        <v>11.02571680510255</v>
       </c>
       <c r="R2">
-        <v>117.78501176847</v>
+        <v>99.231451245923</v>
       </c>
       <c r="S2">
-        <v>0.005348118061828994</v>
+        <v>0.007507142023572463</v>
       </c>
       <c r="T2">
-        <v>0.006664714426252714</v>
+        <v>0.008230149783645236</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>70.597374</v>
+        <v>63.18739966666666</v>
       </c>
       <c r="H3">
-        <v>211.792122</v>
+        <v>189.562199</v>
       </c>
       <c r="I3">
-        <v>0.1038461413627678</v>
+        <v>0.09596345243430386</v>
       </c>
       <c r="J3">
-        <v>0.1079321580975798</v>
+        <v>0.09988075390087989</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.630605</v>
       </c>
       <c r="O3">
-        <v>0.3362090468038446</v>
+        <v>0.5425629886502931</v>
       </c>
       <c r="P3">
-        <v>0.4031154633417589</v>
+        <v>0.5714882742434749</v>
       </c>
       <c r="Q3">
-        <v>85.43705967709001</v>
+        <v>76.46949638893277</v>
       </c>
       <c r="R3">
-        <v>768.9335370938101</v>
+        <v>688.225467500395</v>
       </c>
       <c r="S3">
-        <v>0.03491401220183347</v>
+        <v>0.05206621755395614</v>
       </c>
       <c r="T3">
-        <v>0.04350912192098184</v>
+        <v>0.05708067967695107</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>70.597374</v>
+        <v>63.18739966666666</v>
       </c>
       <c r="H4">
-        <v>211.792122</v>
+        <v>189.562199</v>
       </c>
       <c r="I4">
-        <v>0.1038461413627678</v>
+        <v>0.09596345243430386</v>
       </c>
       <c r="J4">
-        <v>0.1079321580975798</v>
+        <v>0.09988075390087989</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.167083</v>
+        <v>0.1427166666666667</v>
       </c>
       <c r="N4">
-        <v>0.5012489999999999</v>
+        <v>0.42815</v>
       </c>
       <c r="O4">
-        <v>0.04641773161811331</v>
+        <v>0.06398337015197826</v>
       </c>
       <c r="P4">
-        <v>0.05565497289972147</v>
+        <v>0.06739447133944447</v>
       </c>
       <c r="Q4">
-        <v>11.795621040042</v>
+        <v>9.017895055761112</v>
       </c>
       <c r="R4">
-        <v>106.160589360378</v>
+        <v>81.16105550185</v>
       </c>
       <c r="S4">
-        <v>0.004820302319353612</v>
+        <v>0.006140065098165824</v>
       </c>
       <c r="T4">
-        <v>0.006006961333929256</v>
+        <v>0.006731410606134956</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>70.597374</v>
+        <v>63.18739966666666</v>
       </c>
       <c r="H5">
-        <v>211.792122</v>
+        <v>189.562199</v>
       </c>
       <c r="I5">
-        <v>0.1038461413627678</v>
+        <v>0.09596345243430386</v>
       </c>
       <c r="J5">
-        <v>0.1079321580975798</v>
+        <v>0.09988075390087989</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.7922885</v>
+        <v>0.3386875</v>
       </c>
       <c r="N5">
-        <v>3.584577</v>
+        <v>0.6773750000000001</v>
       </c>
       <c r="O5">
-        <v>0.4979199953031181</v>
+        <v>0.15184188493529</v>
       </c>
       <c r="P5">
-        <v>0.3980048554550032</v>
+        <v>0.1066246175956001</v>
       </c>
       <c r="Q5">
-        <v>126.530861550399</v>
+        <v>21.40078242460417</v>
       </c>
       <c r="R5">
-        <v>759.185169302394</v>
+        <v>128.404694547625</v>
       </c>
       <c r="S5">
-        <v>0.05170707021959629</v>
+        <v>0.01457127150252274</v>
       </c>
       <c r="T5">
-        <v>0.04295752298257379</v>
+        <v>0.01064974718984157</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>70.597374</v>
+        <v>63.18739966666666</v>
       </c>
       <c r="H6">
-        <v>211.792122</v>
+        <v>189.562199</v>
       </c>
       <c r="I6">
-        <v>0.1038461413627678</v>
+        <v>0.09596345243430386</v>
       </c>
       <c r="J6">
-        <v>0.1079321580975798</v>
+        <v>0.09988075390087989</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2445996666666667</v>
+        <v>0.3644293333333333</v>
       </c>
       <c r="N6">
-        <v>0.7337990000000001</v>
+        <v>1.093288</v>
       </c>
       <c r="O6">
-        <v>0.06795282393309501</v>
+        <v>0.1633825780374074</v>
       </c>
       <c r="P6">
-        <v>0.08147560086672039</v>
+        <v>0.1720928804899184</v>
       </c>
       <c r="Q6">
-        <v>17.268094147942</v>
+        <v>23.02734193559022</v>
       </c>
       <c r="R6">
-        <v>155.412847331478</v>
+        <v>207.246077420312</v>
       </c>
       <c r="S6">
-        <v>0.007056638560155457</v>
+        <v>0.01567875625608669</v>
       </c>
       <c r="T6">
-        <v>0.008793837433842171</v>
+        <v>0.01718876664430707</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>605.249321</v>
       </c>
       <c r="I7">
-        <v>0.2967664989365622</v>
+        <v>0.3063997713314046</v>
       </c>
       <c r="J7">
-        <v>0.3084433206756614</v>
+        <v>0.3189072441572365</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1853783333333333</v>
+        <v>0.1744923333333333</v>
       </c>
       <c r="N7">
-        <v>0.5561349999999999</v>
+        <v>0.523477</v>
       </c>
       <c r="O7">
-        <v>0.05150040234182901</v>
+        <v>0.07822917822503123</v>
       </c>
       <c r="P7">
-        <v>0.06174910743679609</v>
+        <v>0.08239975633156223</v>
       </c>
       <c r="Q7">
-        <v>37.40003679270389</v>
+        <v>35.20378875656856</v>
       </c>
       <c r="R7">
-        <v>336.600331134335</v>
+        <v>316.834098809117</v>
       </c>
       <c r="S7">
-        <v>0.01528359409680892</v>
+        <v>0.02396940231959327</v>
       </c>
       <c r="T7">
-        <v>0.01904609974656356</v>
+        <v>0.02627787921092631</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>605.249321</v>
       </c>
       <c r="I8">
-        <v>0.2967664989365622</v>
+        <v>0.3063997713314046</v>
       </c>
       <c r="J8">
-        <v>0.3084433206756614</v>
+        <v>0.3189072441572365</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>3.630605</v>
       </c>
       <c r="O8">
-        <v>0.3362090468038446</v>
+        <v>0.5425629886502931</v>
       </c>
       <c r="P8">
-        <v>0.4031154633417589</v>
+        <v>0.5714882742434749</v>
       </c>
       <c r="Q8">
         <v>244.1579123410228</v>
@@ -948,10 +948,10 @@
         <v>2197.421211069205</v>
       </c>
       <c r="S8">
-        <v>0.09977558173077573</v>
+        <v>0.1662411756553333</v>
       </c>
       <c r="T8">
-        <v>0.12433827212884</v>
+        <v>0.1822517506071616</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>605.249321</v>
       </c>
       <c r="I9">
-        <v>0.2967664989365622</v>
+        <v>0.3063997713314046</v>
       </c>
       <c r="J9">
-        <v>0.3084433206756614</v>
+        <v>0.3189072441572365</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.167083</v>
+        <v>0.1427166666666667</v>
       </c>
       <c r="N9">
-        <v>0.5012489999999999</v>
+        <v>0.42815</v>
       </c>
       <c r="O9">
-        <v>0.04641773161811331</v>
+        <v>0.06398337015197826</v>
       </c>
       <c r="P9">
-        <v>0.05565497289972147</v>
+        <v>0.06739447133944447</v>
       </c>
       <c r="Q9">
-        <v>33.70895743354767</v>
+        <v>28.79305519846111</v>
       </c>
       <c r="R9">
-        <v>303.380616901929</v>
+        <v>259.13749678615</v>
       </c>
       <c r="S9">
-        <v>0.01377522770088445</v>
+        <v>0.01960448998357876</v>
       </c>
       <c r="T9">
-        <v>0.01716640465330404</v>
+        <v>0.0214925851262961</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>605.249321</v>
       </c>
       <c r="I10">
-        <v>0.2967664989365622</v>
+        <v>0.3063997713314046</v>
       </c>
       <c r="J10">
-        <v>0.3084433206756614</v>
+        <v>0.3189072441572365</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.7922885</v>
+        <v>0.3386875</v>
       </c>
       <c r="N10">
-        <v>3.584577</v>
+        <v>0.6773750000000001</v>
       </c>
       <c r="O10">
-        <v>0.4979199953031181</v>
+        <v>0.15184188493529</v>
       </c>
       <c r="P10">
-        <v>0.3980048554550032</v>
+        <v>0.1066246175956001</v>
       </c>
       <c r="Q10">
-        <v>361.5937992203695</v>
+        <v>68.33012646872918</v>
       </c>
       <c r="R10">
-        <v>2169.562795322217</v>
+        <v>409.980758812375</v>
       </c>
       <c r="S10">
-        <v>0.1477659737566158</v>
+        <v>0.0465243188227023</v>
       </c>
       <c r="T10">
-        <v>0.1227619392615778</v>
+        <v>0.03400336295673204</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>605.249321</v>
       </c>
       <c r="I11">
-        <v>0.2967664989365622</v>
+        <v>0.3063997713314046</v>
       </c>
       <c r="J11">
-        <v>0.3084433206756614</v>
+        <v>0.3189072441572365</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2445996666666667</v>
+        <v>0.3644293333333333</v>
       </c>
       <c r="N11">
-        <v>0.7337990000000001</v>
+        <v>1.093288</v>
       </c>
       <c r="O11">
-        <v>0.06795282393309501</v>
+        <v>0.1633825780374074</v>
       </c>
       <c r="P11">
-        <v>0.08147560086672039</v>
+        <v>0.1720928804899184</v>
       </c>
       <c r="Q11">
-        <v>49.34792738894212</v>
+        <v>73.52353551749422</v>
       </c>
       <c r="R11">
-        <v>444.1313465004791</v>
+        <v>661.711819657448</v>
       </c>
       <c r="S11">
-        <v>0.02016612165147724</v>
+        <v>0.05006038455019701</v>
       </c>
       <c r="T11">
-        <v>0.02513060488537603</v>
+        <v>0.05488166625612053</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>140.4664383333333</v>
+        <v>170.2928416666667</v>
       </c>
       <c r="H12">
-        <v>421.399315</v>
+        <v>510.878525</v>
       </c>
       <c r="I12">
-        <v>0.2066209659850499</v>
+        <v>0.2586257560429799</v>
       </c>
       <c r="J12">
-        <v>0.2147508465342814</v>
+        <v>0.2691830570543736</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1853783333333333</v>
+        <v>0.1744923333333333</v>
       </c>
       <c r="N12">
-        <v>0.5561349999999999</v>
+        <v>0.523477</v>
       </c>
       <c r="O12">
-        <v>0.05150040234182901</v>
+        <v>0.07822917822503123</v>
       </c>
       <c r="P12">
-        <v>0.06174910743679609</v>
+        <v>0.08239975633156223</v>
       </c>
       <c r="Q12">
-        <v>26.03943422750278</v>
+        <v>29.71479529238056</v>
       </c>
       <c r="R12">
-        <v>234.354908047525</v>
+        <v>267.433157631425</v>
       </c>
       <c r="S12">
-        <v>0.01064106288048743</v>
+        <v>0.02023208036306972</v>
       </c>
       <c r="T12">
-        <v>0.01326067309478825</v>
+        <v>0.02218061830986539</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>140.4664383333333</v>
+        <v>170.2928416666667</v>
       </c>
       <c r="H13">
-        <v>421.399315</v>
+        <v>510.878525</v>
       </c>
       <c r="I13">
-        <v>0.2066209659850499</v>
+        <v>0.2586257560429799</v>
       </c>
       <c r="J13">
-        <v>0.2147508465342814</v>
+        <v>0.2691830570543736</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>3.630605</v>
       </c>
       <c r="O13">
-        <v>0.3362090468038446</v>
+        <v>0.5425629886502931</v>
       </c>
       <c r="P13">
-        <v>0.4031154633417589</v>
+        <v>0.5714882742434749</v>
       </c>
       <c r="Q13">
-        <v>169.9927177817306</v>
+        <v>206.0886808064028</v>
       </c>
       <c r="R13">
-        <v>1529.934460035575</v>
+        <v>1854.798127257625</v>
       </c>
       <c r="S13">
-        <v>0.06946783802352322</v>
+        <v>0.1403207631406208</v>
       </c>
       <c r="T13">
-        <v>0.08656938700370183</v>
+        <v>0.1538349607315868</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>140.4664383333333</v>
+        <v>170.2928416666667</v>
       </c>
       <c r="H14">
-        <v>421.399315</v>
+        <v>510.878525</v>
       </c>
       <c r="I14">
-        <v>0.2066209659850499</v>
+        <v>0.2586257560429799</v>
       </c>
       <c r="J14">
-        <v>0.2147508465342814</v>
+        <v>0.2691830570543736</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1302,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.167083</v>
+        <v>0.1427166666666667</v>
       </c>
       <c r="N14">
-        <v>0.5012489999999999</v>
+        <v>0.42815</v>
       </c>
       <c r="O14">
-        <v>0.04641773161811331</v>
+        <v>0.06398337015197826</v>
       </c>
       <c r="P14">
-        <v>0.05565497289972147</v>
+        <v>0.06739447133944447</v>
       </c>
       <c r="Q14">
-        <v>23.46955391604833</v>
+        <v>24.30362671986111</v>
       </c>
       <c r="R14">
-        <v>211.225985244435</v>
+        <v>218.73264047875</v>
       </c>
       <c r="S14">
-        <v>0.009590876545769365</v>
+        <v>0.01654774747973321</v>
       </c>
       <c r="T14">
-        <v>0.01195195254405768</v>
+        <v>0.01814144982371502</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>140.4664383333333</v>
+        <v>170.2928416666667</v>
       </c>
       <c r="H15">
-        <v>421.399315</v>
+        <v>510.878525</v>
       </c>
       <c r="I15">
-        <v>0.2066209659850499</v>
+        <v>0.2586257560429799</v>
       </c>
       <c r="J15">
-        <v>0.2147508465342814</v>
+        <v>0.2691830570543736</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.7922885</v>
+        <v>0.3386875</v>
       </c>
       <c r="N15">
-        <v>3.584577</v>
+        <v>0.6773750000000001</v>
       </c>
       <c r="O15">
-        <v>0.4979199953031181</v>
+        <v>0.15184188493529</v>
       </c>
       <c r="P15">
-        <v>0.3980048554550032</v>
+        <v>0.1066246175956001</v>
       </c>
       <c r="Q15">
-        <v>251.7563820607925</v>
+        <v>57.67605681197917</v>
       </c>
       <c r="R15">
-        <v>1510.538292364755</v>
+        <v>346.056340871875</v>
       </c>
       <c r="S15">
-        <v>0.1028807104128018</v>
+        <v>0.03927022229038054</v>
       </c>
       <c r="T15">
-        <v>0.08547187963371627</v>
+        <v>0.0287015405216372</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>140.4664383333333</v>
+        <v>170.2928416666667</v>
       </c>
       <c r="H16">
-        <v>421.399315</v>
+        <v>510.878525</v>
       </c>
       <c r="I16">
-        <v>0.2066209659850499</v>
+        <v>0.2586257560429799</v>
       </c>
       <c r="J16">
-        <v>0.2147508465342814</v>
+        <v>0.2691830570543736</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2445996666666667</v>
+        <v>0.3644293333333333</v>
       </c>
       <c r="N16">
-        <v>0.7337990000000001</v>
+        <v>1.093288</v>
       </c>
       <c r="O16">
-        <v>0.06795282393309501</v>
+        <v>0.1633825780374074</v>
       </c>
       <c r="P16">
-        <v>0.08147560086672039</v>
+        <v>0.1720928804899184</v>
       </c>
       <c r="Q16">
-        <v>34.35804399418723</v>
+        <v>62.05970676002222</v>
       </c>
       <c r="R16">
-        <v>309.222395947685</v>
+        <v>558.5373608402</v>
       </c>
       <c r="S16">
-        <v>0.01404047812246811</v>
+        <v>0.04225494276917567</v>
       </c>
       <c r="T16">
-        <v>0.01749695425801744</v>
+        <v>0.04632448766756919</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>77.2091405</v>
+        <v>77.473122</v>
       </c>
       <c r="H17">
-        <v>154.418281</v>
+        <v>154.946244</v>
       </c>
       <c r="I17">
-        <v>0.1135718067765637</v>
+        <v>0.1176593481802354</v>
       </c>
       <c r="J17">
-        <v>0.07869366509321106</v>
+        <v>0.08164152846121862</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.1853783333333333</v>
+        <v>0.1744923333333333</v>
       </c>
       <c r="N17">
-        <v>0.5561349999999999</v>
+        <v>0.523477</v>
       </c>
       <c r="O17">
-        <v>0.05150040234182901</v>
+        <v>0.07822917822503123</v>
       </c>
       <c r="P17">
-        <v>0.06174910743679609</v>
+        <v>0.08239975633156223</v>
       </c>
       <c r="Q17">
-        <v>14.31290178398917</v>
+        <v>13.518465828398</v>
       </c>
       <c r="R17">
-        <v>85.877410703935</v>
+        <v>81.110794970388</v>
       </c>
       <c r="S17">
-        <v>0.005848993743681493</v>
+        <v>0.009204394118632634</v>
       </c>
       <c r="T17">
-        <v>0.00485926358043594</v>
+        <v>0.006727242051740717</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>77.2091405</v>
+        <v>77.473122</v>
       </c>
       <c r="H18">
-        <v>154.418281</v>
+        <v>154.946244</v>
       </c>
       <c r="I18">
-        <v>0.1135718067765637</v>
+        <v>0.1176593481802354</v>
       </c>
       <c r="J18">
-        <v>0.07869366509321106</v>
+        <v>0.08164152846121862</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>3.630605</v>
       </c>
       <c r="O18">
-        <v>0.3362090468038446</v>
+        <v>0.5425629886502931</v>
       </c>
       <c r="P18">
-        <v>0.4031154633417589</v>
+        <v>0.5714882742434749</v>
       </c>
       <c r="Q18">
-        <v>93.43863051500084</v>
+        <v>93.75810136627</v>
       </c>
       <c r="R18">
-        <v>560.631783090005</v>
+        <v>562.5486081976201</v>
       </c>
       <c r="S18">
-        <v>0.0381838689001389</v>
+        <v>0.06383760759131392</v>
       </c>
       <c r="T18">
-        <v>0.03172263326611097</v>
+        <v>0.04665717620690137</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>77.2091405</v>
+        <v>77.473122</v>
       </c>
       <c r="H19">
-        <v>154.418281</v>
+        <v>154.946244</v>
       </c>
       <c r="I19">
-        <v>0.1135718067765637</v>
+        <v>0.1176593481802354</v>
       </c>
       <c r="J19">
-        <v>0.07869366509321106</v>
+        <v>0.08164152846121862</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1612,28 +1612,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.167083</v>
+        <v>0.1427166666666667</v>
       </c>
       <c r="N19">
-        <v>0.5012489999999999</v>
+        <v>0.42815</v>
       </c>
       <c r="O19">
-        <v>0.04641773161811331</v>
+        <v>0.06398337015197826</v>
       </c>
       <c r="P19">
-        <v>0.05565497289972147</v>
+        <v>0.06739447133944447</v>
       </c>
       <c r="Q19">
-        <v>12.9003348221615</v>
+        <v>11.0567057281</v>
       </c>
       <c r="R19">
-        <v>77.402008932969</v>
+        <v>66.34023436860001</v>
       </c>
       <c r="S19">
-        <v>0.005271745646338757</v>
+        <v>0.007528241626456488</v>
       </c>
       <c r="T19">
-        <v>0.004379693798142419</v>
+        <v>0.005502187649988039</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>77.2091405</v>
+        <v>77.473122</v>
       </c>
       <c r="H20">
-        <v>154.418281</v>
+        <v>154.946244</v>
       </c>
       <c r="I20">
-        <v>0.1135718067765637</v>
+        <v>0.1176593481802354</v>
       </c>
       <c r="J20">
-        <v>0.07869366509321106</v>
+        <v>0.08164152846121862</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.7922885</v>
+        <v>0.3386875</v>
       </c>
       <c r="N20">
-        <v>3.584577</v>
+        <v>0.6773750000000001</v>
       </c>
       <c r="O20">
-        <v>0.4979199953031181</v>
+        <v>0.15184188493529</v>
       </c>
       <c r="P20">
-        <v>0.3980048554550032</v>
+        <v>0.1066246175956001</v>
       </c>
       <c r="Q20">
-        <v>138.3810546130343</v>
+        <v>26.239178007375</v>
       </c>
       <c r="R20">
-        <v>553.524218452137</v>
+        <v>104.9567120295</v>
       </c>
       <c r="S20">
-        <v>0.05654967349675324</v>
+        <v>0.01786561720794452</v>
       </c>
       <c r="T20">
-        <v>0.0313204608006479</v>
+        <v>0.008704996752097741</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>77.2091405</v>
+        <v>77.473122</v>
       </c>
       <c r="H21">
-        <v>154.418281</v>
+        <v>154.946244</v>
       </c>
       <c r="I21">
-        <v>0.1135718067765637</v>
+        <v>0.1176593481802354</v>
       </c>
       <c r="J21">
-        <v>0.07869366509321106</v>
+        <v>0.08164152846121862</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.2445996666666667</v>
+        <v>0.3644293333333333</v>
       </c>
       <c r="N21">
-        <v>0.7337990000000001</v>
+        <v>1.093288</v>
       </c>
       <c r="O21">
-        <v>0.06795282393309501</v>
+        <v>0.1633825780374074</v>
       </c>
       <c r="P21">
-        <v>0.08147560086672039</v>
+        <v>0.1720928804899184</v>
       </c>
       <c r="Q21">
-        <v>18.88533002991984</v>
+        <v>28.233478201712</v>
       </c>
       <c r="R21">
-        <v>113.311980179519</v>
+        <v>169.400869210272</v>
       </c>
       <c r="S21">
-        <v>0.007717524989651321</v>
+        <v>0.01922348763588779</v>
       </c>
       <c r="T21">
-        <v>0.006411613647873831</v>
+        <v>0.01404992580049077</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>189.8039196666666</v>
+        <v>145.7496183333334</v>
       </c>
       <c r="H22">
-        <v>569.411759</v>
+        <v>437.248855</v>
       </c>
       <c r="I22">
-        <v>0.2791945869390566</v>
+        <v>0.2213516720110761</v>
       </c>
       <c r="J22">
-        <v>0.2901800095992663</v>
+        <v>0.2303874164262914</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.1853783333333333</v>
+        <v>0.1744923333333333</v>
       </c>
       <c r="N22">
-        <v>0.5561349999999999</v>
+        <v>0.523477</v>
       </c>
       <c r="O22">
-        <v>0.05150040234182901</v>
+        <v>0.07822917822503123</v>
       </c>
       <c r="P22">
-        <v>0.06174910743679609</v>
+        <v>0.08239975633156223</v>
       </c>
       <c r="Q22">
-        <v>35.18553428794055</v>
+        <v>25.43219098542611</v>
       </c>
       <c r="R22">
-        <v>316.6698085914649</v>
+        <v>228.889718868835</v>
       </c>
       <c r="S22">
-        <v>0.01437863355902217</v>
+        <v>0.01731615940016313</v>
       </c>
       <c r="T22">
-        <v>0.01791835658875562</v>
+        <v>0.01898386697538457</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>189.8039196666666</v>
+        <v>145.7496183333334</v>
       </c>
       <c r="H23">
-        <v>569.411759</v>
+        <v>437.248855</v>
       </c>
       <c r="I23">
-        <v>0.2791945869390566</v>
+        <v>0.2213516720110761</v>
       </c>
       <c r="J23">
-        <v>0.2901800095992663</v>
+        <v>0.2303874164262914</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>3.630605</v>
       </c>
       <c r="O23">
-        <v>0.3362090468038446</v>
+        <v>0.5425629886502931</v>
       </c>
       <c r="P23">
-        <v>0.4031154633417589</v>
+        <v>0.5714882742434749</v>
       </c>
       <c r="Q23">
-        <v>229.7010199204661</v>
+        <v>176.3864310230306</v>
       </c>
       <c r="R23">
-        <v>2067.309179284195</v>
+        <v>1587.477879207275</v>
       </c>
       <c r="S23">
-        <v>0.09386774594757334</v>
+        <v>0.1200972247090689</v>
       </c>
       <c r="T23">
-        <v>0.1169760490221243</v>
+        <v>0.1316637070208741</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>189.8039196666666</v>
+        <v>145.7496183333334</v>
       </c>
       <c r="H24">
-        <v>569.411759</v>
+        <v>437.248855</v>
       </c>
       <c r="I24">
-        <v>0.2791945869390566</v>
+        <v>0.2213516720110761</v>
       </c>
       <c r="J24">
-        <v>0.2901800095992663</v>
+        <v>0.2303874164262914</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1922,28 +1922,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.167083</v>
+        <v>0.1427166666666667</v>
       </c>
       <c r="N24">
-        <v>0.5012489999999999</v>
+        <v>0.42815</v>
       </c>
       <c r="O24">
-        <v>0.04641773161811331</v>
+        <v>0.06398337015197826</v>
       </c>
       <c r="P24">
-        <v>0.05565497289972147</v>
+        <v>0.06739447133944447</v>
       </c>
       <c r="Q24">
-        <v>31.71300830966566</v>
+        <v>20.80089969647223</v>
       </c>
       <c r="R24">
-        <v>285.417074786991</v>
+        <v>187.20809726825</v>
       </c>
       <c r="S24">
-        <v>0.01295957940576713</v>
+        <v>0.01416282596404397</v>
       </c>
       <c r="T24">
-        <v>0.01614996057028809</v>
+        <v>0.01552683813331035</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>189.8039196666666</v>
+        <v>145.7496183333334</v>
       </c>
       <c r="H25">
-        <v>569.411759</v>
+        <v>437.248855</v>
       </c>
       <c r="I25">
-        <v>0.2791945869390566</v>
+        <v>0.2213516720110761</v>
       </c>
       <c r="J25">
-        <v>0.2901800095992663</v>
+        <v>0.2303874164262914</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.7922885</v>
+        <v>0.3386875</v>
       </c>
       <c r="N25">
-        <v>3.584577</v>
+        <v>0.6773750000000001</v>
       </c>
       <c r="O25">
-        <v>0.4979199953031181</v>
+        <v>0.15184188493529</v>
       </c>
       <c r="P25">
-        <v>0.3980048554550032</v>
+        <v>0.1066246175956001</v>
       </c>
       <c r="Q25">
-        <v>340.1833824734904</v>
+        <v>49.36357385927084</v>
       </c>
       <c r="R25">
-        <v>2041.100294840943</v>
+        <v>296.1814431556251</v>
       </c>
       <c r="S25">
-        <v>0.1390165674173511</v>
+        <v>0.03361045511173986</v>
       </c>
       <c r="T25">
-        <v>0.1154930527764874</v>
+        <v>0.02456497017529161</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>189.8039196666666</v>
+        <v>145.7496183333334</v>
       </c>
       <c r="H26">
-        <v>569.411759</v>
+        <v>437.248855</v>
       </c>
       <c r="I26">
-        <v>0.2791945869390566</v>
+        <v>0.2213516720110761</v>
       </c>
       <c r="J26">
-        <v>0.2901800095992663</v>
+        <v>0.2303874164262914</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.2445996666666667</v>
+        <v>0.3644293333333333</v>
       </c>
       <c r="N26">
-        <v>0.7337990000000001</v>
+        <v>1.093288</v>
       </c>
       <c r="O26">
-        <v>0.06795282393309501</v>
+        <v>0.1633825780374074</v>
       </c>
       <c r="P26">
-        <v>0.08147560086672039</v>
+        <v>0.1720928804899184</v>
       </c>
       <c r="Q26">
-        <v>46.42597548249344</v>
+        <v>53.11543624280446</v>
       </c>
       <c r="R26">
-        <v>417.833779342441</v>
+        <v>478.0389261852401</v>
       </c>
       <c r="S26">
-        <v>0.0189720606093429</v>
+        <v>0.03616500682606025</v>
       </c>
       <c r="T26">
-        <v>0.02364259064161091</v>
+        <v>0.03964803412143083</v>
       </c>
     </row>
   </sheetData>
